--- a/Data/nonprofit_2019revenue.xlsx
+++ b/Data/nonprofit_2019revenue.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scanilang/Documents/umn/year 2/healthdata/healthdatacomp23/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E7E9B8-3A97-4646-B7B8-E34941B9FD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEF56B1-203A-6749-8CD2-81B245F3402C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2500" windowWidth="27240" windowHeight="16440" xr2:uid="{392AD6EF-9B86-FE47-B051-9DA6B42B3FD6}"/>
+    <workbookView xWindow="7140" yWindow="820" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{392AD6EF-9B86-FE47-B051-9DA6B42B3FD6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="nonprofits" sheetId="1" r:id="rId1"/>
+    <sheet name="classifications" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="120">
   <si>
     <t>Medical.Group.Name</t>
   </si>
@@ -223,13 +224,184 @@
   </si>
   <si>
     <t>Zumbro Valley Health Center</t>
+  </si>
+  <si>
+    <t>independent</t>
+  </si>
+  <si>
+    <t>Ramsey County Mental Health Center</t>
+  </si>
+  <si>
+    <t>CCBHC</t>
+  </si>
+  <si>
+    <t>Alomere</t>
+  </si>
+  <si>
+    <t>AALFA Family Clinic</t>
+  </si>
+  <si>
+    <t>Adefris &amp; Toppin Women's Specialists</t>
+  </si>
+  <si>
+    <t>Advanced Medical Clinic</t>
+  </si>
+  <si>
+    <t>Advancements in Allergy and Asthma Care</t>
+  </si>
+  <si>
+    <t>All About Children Pediatrics - Children's Health Network</t>
+  </si>
+  <si>
+    <t>Allergy &amp; Asthma Specialists, PA</t>
+  </si>
+  <si>
+    <t>Alomere Health</t>
+  </si>
+  <si>
+    <t>Bluestone Physician Services</t>
+  </si>
+  <si>
+    <t>CCM Health</t>
+  </si>
+  <si>
+    <t>Central Pediatrics</t>
+  </si>
+  <si>
+    <t>Child and Teen Medical Center</t>
+  </si>
+  <si>
+    <t>Community Memorial Hospital</t>
+  </si>
+  <si>
+    <t>Cromwell Medical Clinic PLLC - IHN</t>
+  </si>
+  <si>
+    <t>Dr. VM Baich, PA</t>
+  </si>
+  <si>
+    <t>Edina Sports Health &amp; Wellness</t>
+  </si>
+  <si>
+    <t>Entira Family Clinics (formerly Family Health Services MN)</t>
+  </si>
+  <si>
+    <t>Family Practice Medical Center of Willmar</t>
+  </si>
+  <si>
+    <t>France Avenue Family Physicians - Minnesota Healthcare Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glencoe Regional Health Services </t>
+  </si>
+  <si>
+    <t>Granite Falls Municipal Hospital &amp; Manor Clinic</t>
+  </si>
+  <si>
+    <t>Kittson Healthcare Clinic</t>
+  </si>
+  <si>
+    <t>Madelia Community Hospital &amp; Clinic</t>
+  </si>
+  <si>
+    <t>Murray County Clinic</t>
+  </si>
+  <si>
+    <t>Northern Psychiatric Associates</t>
+  </si>
+  <si>
+    <t>Northwest Family Physicians</t>
+  </si>
+  <si>
+    <t>OBGYN West</t>
+  </si>
+  <si>
+    <t>Oakdale Ob/Gyn</t>
+  </si>
+  <si>
+    <t>Obstetrics and Gynecology Associates</t>
+  </si>
+  <si>
+    <t>Parkview Medical Clinic - Minnesota Healthcare Network</t>
+  </si>
+  <si>
+    <t>Parkway Family Physicians-Minnesota Healthcare Network</t>
+  </si>
+  <si>
+    <t>Rainy Lake Medical Center</t>
+  </si>
+  <si>
+    <t>Raiter Clinic, LTD - IHN</t>
+  </si>
+  <si>
+    <t>Richfield Medical Group</t>
+  </si>
+  <si>
+    <t>RiverView Health</t>
+  </si>
+  <si>
+    <t>Sartell Pediatrics - IHN</t>
+  </si>
+  <si>
+    <t>Sleepy Eye Medical Center</t>
+  </si>
+  <si>
+    <t>South Lake Pediatrics</t>
+  </si>
+  <si>
+    <t>Southdale Ob/Gyn Consultants</t>
+  </si>
+  <si>
+    <t>Southdale Pediatric Associates, Ltd</t>
+  </si>
+  <si>
+    <t>St. Paul Allergy &amp; Asthma Clinic, P.A.</t>
+  </si>
+  <si>
+    <t>St. Paul Family Medical Center</t>
+  </si>
+  <si>
+    <t>Stellis Health, PA</t>
+  </si>
+  <si>
+    <t>Synergy Family Physicians, P.A</t>
+  </si>
+  <si>
+    <t>Voyage Healthcare</t>
+  </si>
+  <si>
+    <t>Williams Integracare Clinic</t>
+  </si>
+  <si>
+    <t>Women &amp; Adolescent Gynecology Center</t>
+  </si>
+  <si>
+    <t>government</t>
+  </si>
+  <si>
+    <t>Appleton Area Health Services</t>
+  </si>
+  <si>
+    <t>Northfield Hospital + Clinics</t>
+  </si>
+  <si>
+    <t>Swift County Benson Health Services</t>
+  </si>
+  <si>
+    <t>Meeker Memorial Hospital &amp; Clinics</t>
+  </si>
+  <si>
+    <t>Ramsey County Mental Health</t>
+  </si>
+  <si>
+    <t>Carris Health</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -257,6 +429,18 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -278,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -287,6 +471,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5443AE-308F-7F45-8C61-3AA81C98D0AE}">
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -617,7 +803,7 @@
     <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,8 +816,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1">
+      <c r="E1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -645,7 +834,7 @@
         <v>1100000000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1">
+    <row r="3" spans="1:5" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -659,7 +848,7 @@
         <v>189600000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1">
+    <row r="4" spans="1:5" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -673,7 +862,7 @@
         <v>-52094080</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1">
+    <row r="5" spans="1:5" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -687,7 +876,7 @@
         <v>118028509</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1">
+    <row r="6" spans="1:5" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -701,7 +890,7 @@
         <v>27100000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1">
+    <row r="7" spans="1:5" s="1" customFormat="1">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -715,7 +904,7 @@
         <v>103100000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1">
+    <row r="8" spans="1:5" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -728,8 +917,11 @@
       <c r="D8" s="3">
         <v>-16018159</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -742,8 +934,11 @@
       <c r="D9" s="2">
         <v>17403493</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1">
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -757,7 +952,7 @@
         <v>16859874</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1">
+    <row r="11" spans="1:5" s="1" customFormat="1">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -771,7 +966,7 @@
         <v>5700000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1">
+    <row r="12" spans="1:5" s="1" customFormat="1">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -785,7 +980,7 @@
         <v>1418486</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1">
+    <row r="13" spans="1:5" s="1" customFormat="1">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -799,7 +994,7 @@
         <v>9602969</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="1" customFormat="1">
+    <row r="14" spans="1:5" s="1" customFormat="1">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -812,8 +1007,11 @@
       <c r="D14" s="4">
         <v>-120753</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" s="1" customFormat="1">
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="1" customFormat="1">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -826,8 +1024,11 @@
       <c r="D15" s="2">
         <v>2910633</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" s="1" customFormat="1">
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -839,6 +1040,9 @@
       </c>
       <c r="D16" s="3">
         <v>-3090457</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1">
@@ -868,6 +1072,9 @@
       <c r="D18" s="1">
         <v>7600000</v>
       </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1">
       <c r="A19" s="1" t="s">
@@ -882,6 +1089,9 @@
       <c r="D19" s="1">
         <v>5600000</v>
       </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1">
       <c r="A20" s="1" t="s">
@@ -896,6 +1106,9 @@
       <c r="D20" s="2">
         <v>3498313</v>
       </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1">
       <c r="A21" s="1" t="s">
@@ -910,6 +1123,9 @@
       <c r="D21" s="3">
         <v>-1103991</v>
       </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:12" s="1" customFormat="1">
       <c r="A22" s="1" t="s">
@@ -938,6 +1154,7 @@
       <c r="D23" s="3">
         <v>-916469</v>
       </c>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:12" s="1" customFormat="1">
       <c r="A24" s="1" t="s">
@@ -966,8 +1183,10 @@
       <c r="D25" s="2">
         <v>1975613</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="8"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
@@ -984,7 +1203,9 @@
       <c r="D26" s="6">
         <v>-7951778</v>
       </c>
-      <c r="E26" s="6"/>
+      <c r="E26" s="6">
+        <v>1</v>
+      </c>
       <c r="F26" s="6"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -1020,7 +1241,9 @@
       <c r="D28" s="2">
         <v>9888</v>
       </c>
-      <c r="E28" s="6"/>
+      <c r="E28" s="6">
+        <v>1</v>
+      </c>
       <c r="F28" s="6"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -1113,6 +1336,9 @@
       <c r="C33" s="2">
         <v>9322415</v>
       </c>
+      <c r="D33" s="3">
+        <v>-61420</v>
+      </c>
       <c r="G33" s="5"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -1193,6 +1419,9 @@
       <c r="D37" s="2">
         <v>1315681</v>
       </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
       <c r="G37" s="5"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
@@ -1373,6 +1602,9 @@
       <c r="D46" s="2">
         <v>2000000</v>
       </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
       <c r="G46" s="5"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
@@ -1513,6 +1745,9 @@
       <c r="D53" s="2">
         <v>445794</v>
       </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
@@ -1593,6 +1828,7 @@
       <c r="D57" s="2">
         <v>447803</v>
       </c>
+      <c r="F57" s="8"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
@@ -1633,6 +1869,7 @@
       <c r="D59" s="2">
         <v>150028</v>
       </c>
+      <c r="F59" s="8"/>
       <c r="G59" s="5"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
@@ -1653,6 +1890,7 @@
       <c r="D60" s="2">
         <v>2398240</v>
       </c>
+      <c r="F60" s="8"/>
       <c r="G60" s="5"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
@@ -1660,6 +1898,397 @@
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
     </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="9"/>
+      <c r="F61" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2916885F-F8FF-4B40-BBFD-D365F41DA683}">
+  <dimension ref="A1:C62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="57.5" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
